--- a/Ganadería/17.8.xlsx
+++ b/Ganadería/17.8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BCN\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Ganadería\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96923A34-C0E0-4546-8252-B42DA57B10CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3040DF00-C6DD-493C-B3FE-0D3257E4FFA5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6AE0A7C4-3314-43BD-AA31-3403CDF321E4}"/>
   </bookViews>

--- a/Ganadería/17.8.xlsx
+++ b/Ganadería/17.8.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rojas.DESKTOP-91OCPB2\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Ganadería\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E519054-DAF0-4FB0-AC0F-0A929021B1D6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE74B3B-E065-445E-A85E-D4D4BB0925E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="15375" windowHeight="7875" xr2:uid="{89A23BD0-3146-46A4-9135-22970208F1B7}"/>
+    <workbookView xWindow="-23148" yWindow="-2160" windowWidth="23256" windowHeight="12576" xr2:uid="{89A23BD0-3146-46A4-9135-22970208F1B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja5" sheetId="22" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="64">
   <si>
     <t>Valparaíso</t>
   </si>
@@ -247,6 +247,12 @@
   </si>
   <si>
     <t>costos, producción, ganado, bovino, ganadería, leche</t>
+  </si>
+  <si>
+    <t>Cod_Region</t>
+  </si>
+  <si>
+    <t>Cod_Prov</t>
   </si>
 </sst>
 </file>
@@ -307,10 +313,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{CBD73FF3-D8B1-4268-B5FE-054831861EE4}" name="Costo_producción_leche" displayName="Costo_producción_leche" ref="A1:I25" totalsRowShown="0">
-  <autoFilter ref="A1:I25" xr:uid="{953C45BF-4AB2-4EF0-BB3E-A5D310C3135D}"/>
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{CBD73FF3-D8B1-4268-B5FE-054831861EE4}" name="Costo_producción_leche" displayName="Costo_producción_leche" ref="A1:K25" totalsRowShown="0">
+  <autoFilter ref="A1:K25" xr:uid="{953C45BF-4AB2-4EF0-BB3E-A5D310C3135D}"/>
+  <tableColumns count="11">
+    <tableColumn id="10" xr3:uid="{EECE577E-F269-4BBE-B63F-CC2A54BE87F8}" name="Cod_Region"/>
     <tableColumn id="1" xr3:uid="{6F781FFA-F334-4E1F-B9DF-047186461843}" name="Región"/>
+    <tableColumn id="11" xr3:uid="{96D680BE-C680-42B3-A5EF-411C7933A93B}" name="Cod_Prov"/>
     <tableColumn id="3" xr3:uid="{5F771B7E-FAA2-44AB-AD9F-A3BFC3468C94}" name="Provincia"/>
     <tableColumn id="4" xr3:uid="{333CAC85-CDE2-410E-A8ED-B17CD5C521E0}" name="Año"/>
     <tableColumn id="2" xr3:uid="{883F3B8A-69F5-43CC-A495-E2311D97C7F3}" name="Costos de producción por litro de leche promedio ($/litro)"/>
@@ -643,10 +651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{965422CC-3877-49E5-819B-617D040BD443}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -655,728 +663,878 @@
     <col min="3" max="3" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>33</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>40</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>34</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>35</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>36</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>37</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2019</v>
-      </c>
-      <c r="D2">
+        <v>51</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>2019</v>
+      </c>
+      <c r="F2">
         <v>266.60000000000002</v>
       </c>
-      <c r="E2">
-        <v>100401</v>
-      </c>
-      <c r="F2" t="s">
-        <v>38</v>
-      </c>
       <c r="G2">
-        <v>100401004</v>
+        <v>100401</v>
       </c>
       <c r="H2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+        <v>100401004</v>
+      </c>
+      <c r="J2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
       <c r="C3">
-        <v>2019</v>
-      </c>
-      <c r="D3">
+        <v>55</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>2019</v>
+      </c>
+      <c r="F3">
         <v>306</v>
       </c>
-      <c r="E3">
-        <v>100401</v>
-      </c>
-      <c r="F3" t="s">
-        <v>38</v>
-      </c>
       <c r="G3">
-        <v>100401004</v>
+        <v>100401</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+        <v>100401004</v>
+      </c>
+      <c r="J3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4">
+        <v>57</v>
+      </c>
+      <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="C4">
-        <v>2019</v>
-      </c>
-      <c r="D4">
+      <c r="E4">
+        <v>2019</v>
+      </c>
+      <c r="F4">
         <v>200</v>
       </c>
-      <c r="E4">
-        <v>100401</v>
-      </c>
-      <c r="F4" t="s">
-        <v>38</v>
-      </c>
       <c r="G4">
-        <v>100401004</v>
+        <v>100401</v>
       </c>
       <c r="H4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+        <v>100401004</v>
+      </c>
+      <c r="J4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
         <v>0</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5">
+        <v>58</v>
+      </c>
+      <c r="D5" t="s">
         <v>3</v>
       </c>
-      <c r="C5">
-        <v>2019</v>
-      </c>
-      <c r="D5">
+      <c r="E5">
+        <v>2019</v>
+      </c>
+      <c r="F5">
         <v>387.5</v>
       </c>
-      <c r="E5">
-        <v>100401</v>
-      </c>
-      <c r="F5" t="s">
-        <v>38</v>
-      </c>
       <c r="G5">
-        <v>100401004</v>
+        <v>100401</v>
       </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+        <v>100401004</v>
+      </c>
+      <c r="J5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6">
+        <v>131</v>
+      </c>
+      <c r="D6" t="s">
         <v>5</v>
       </c>
-      <c r="C6">
-        <v>2019</v>
-      </c>
-      <c r="D6">
+      <c r="E6">
+        <v>2019</v>
+      </c>
+      <c r="F6">
         <v>117</v>
       </c>
-      <c r="E6">
-        <v>100401</v>
-      </c>
-      <c r="F6" t="s">
-        <v>38</v>
-      </c>
       <c r="G6">
-        <v>100401004</v>
+        <v>100401</v>
       </c>
       <c r="H6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+        <v>100401004</v>
+      </c>
+      <c r="J6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7">
+        <v>134</v>
+      </c>
+      <c r="D7" t="s">
         <v>6</v>
       </c>
-      <c r="C7">
-        <v>2019</v>
-      </c>
-      <c r="D7">
+      <c r="E7">
+        <v>2019</v>
+      </c>
+      <c r="F7">
         <v>240</v>
       </c>
-      <c r="E7">
-        <v>100401</v>
-      </c>
-      <c r="F7" t="s">
-        <v>38</v>
-      </c>
       <c r="G7">
-        <v>100401004</v>
+        <v>100401</v>
       </c>
       <c r="H7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+        <v>100401004</v>
+      </c>
+      <c r="J7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
         <v>4</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8">
+        <v>135</v>
+      </c>
+      <c r="D8" t="s">
         <v>7</v>
       </c>
-      <c r="C8">
-        <v>2019</v>
-      </c>
-      <c r="D8">
+      <c r="E8">
+        <v>2019</v>
+      </c>
+      <c r="F8">
         <v>258</v>
       </c>
-      <c r="E8">
-        <v>100401</v>
-      </c>
-      <c r="F8" t="s">
-        <v>38</v>
-      </c>
       <c r="G8">
-        <v>100401004</v>
+        <v>100401</v>
       </c>
       <c r="H8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+        <v>100401004</v>
+      </c>
+      <c r="J8" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
         <v>4</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9">
+        <v>136</v>
+      </c>
+      <c r="D9" t="s">
         <v>8</v>
       </c>
-      <c r="C9">
-        <v>2019</v>
-      </c>
-      <c r="D9">
+      <c r="E9">
+        <v>2019</v>
+      </c>
+      <c r="F9">
         <v>230</v>
       </c>
-      <c r="E9">
-        <v>100401</v>
-      </c>
-      <c r="F9" t="s">
-        <v>38</v>
-      </c>
       <c r="G9">
-        <v>100401004</v>
+        <v>100401</v>
       </c>
       <c r="H9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+        <v>100401004</v>
+      </c>
+      <c r="J9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10">
+        <v>61</v>
+      </c>
+      <c r="D10" t="s">
         <v>10</v>
       </c>
-      <c r="C10">
-        <v>2019</v>
-      </c>
-      <c r="D10">
+      <c r="E10">
+        <v>2019</v>
+      </c>
+      <c r="F10">
         <v>243.5</v>
       </c>
-      <c r="E10">
-        <v>100401</v>
-      </c>
-      <c r="F10" t="s">
-        <v>38</v>
-      </c>
       <c r="G10">
-        <v>100401004</v>
+        <v>100401</v>
       </c>
       <c r="H10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+        <v>100401004</v>
+      </c>
+      <c r="J10" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11">
+        <v>63</v>
+      </c>
+      <c r="D11" t="s">
         <v>11</v>
       </c>
-      <c r="C11">
-        <v>2019</v>
-      </c>
-      <c r="D11">
+      <c r="E11">
+        <v>2019</v>
+      </c>
+      <c r="F11">
         <v>253</v>
       </c>
-      <c r="E11">
-        <v>100401</v>
-      </c>
-      <c r="F11" t="s">
-        <v>38</v>
-      </c>
       <c r="G11">
-        <v>100401004</v>
+        <v>100401</v>
       </c>
       <c r="H11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+        <v>100401004</v>
+      </c>
+      <c r="J11" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12">
+        <v>74</v>
+      </c>
+      <c r="D12" t="s">
         <v>13</v>
       </c>
-      <c r="C12">
-        <v>2019</v>
-      </c>
-      <c r="D12">
+      <c r="E12">
+        <v>2019</v>
+      </c>
+      <c r="F12">
         <v>300</v>
       </c>
-      <c r="E12">
-        <v>100401</v>
-      </c>
-      <c r="F12" t="s">
-        <v>38</v>
-      </c>
       <c r="G12">
-        <v>100401004</v>
+        <v>100401</v>
       </c>
       <c r="H12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+        <v>100401004</v>
+      </c>
+      <c r="J12" t="s">
+        <v>39</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
         <v>14</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13">
+        <v>161</v>
+      </c>
+      <c r="D13" t="s">
         <v>15</v>
       </c>
-      <c r="C13">
-        <v>2019</v>
-      </c>
-      <c r="D13">
+      <c r="E13">
+        <v>2019</v>
+      </c>
+      <c r="F13">
         <v>171.66666666666666</v>
       </c>
-      <c r="E13">
-        <v>100401</v>
-      </c>
-      <c r="F13" t="s">
-        <v>38</v>
-      </c>
       <c r="G13">
-        <v>100401004</v>
+        <v>100401</v>
       </c>
       <c r="H13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+        <v>100401004</v>
+      </c>
+      <c r="J13" t="s">
+        <v>39</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
         <v>14</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14">
+        <v>163</v>
+      </c>
+      <c r="D14" t="s">
         <v>16</v>
       </c>
-      <c r="C14">
-        <v>2019</v>
-      </c>
-      <c r="D14">
+      <c r="E14">
+        <v>2019</v>
+      </c>
+      <c r="F14">
         <v>190</v>
       </c>
-      <c r="E14">
-        <v>100401</v>
-      </c>
-      <c r="F14" t="s">
-        <v>38</v>
-      </c>
       <c r="G14">
-        <v>100401004</v>
+        <v>100401</v>
       </c>
       <c r="H14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+        <v>100401004</v>
+      </c>
+      <c r="J14" t="s">
+        <v>39</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
         <v>17</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15">
+        <v>81</v>
+      </c>
+      <c r="D15" t="s">
         <v>18</v>
       </c>
-      <c r="C15">
-        <v>2019</v>
-      </c>
-      <c r="D15">
+      <c r="E15">
+        <v>2019</v>
+      </c>
+      <c r="F15">
         <v>100</v>
       </c>
-      <c r="E15">
-        <v>100401</v>
-      </c>
-      <c r="F15" t="s">
-        <v>38</v>
-      </c>
       <c r="G15">
-        <v>100401004</v>
+        <v>100401</v>
       </c>
       <c r="H15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+        <v>100401004</v>
+      </c>
+      <c r="J15" t="s">
+        <v>39</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
         <v>17</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16">
+        <v>82</v>
+      </c>
+      <c r="D16" t="s">
         <v>19</v>
       </c>
-      <c r="C16">
-        <v>2019</v>
-      </c>
-      <c r="D16">
+      <c r="E16">
+        <v>2019</v>
+      </c>
+      <c r="F16">
         <v>150</v>
       </c>
-      <c r="E16">
-        <v>100401</v>
-      </c>
-      <c r="F16" t="s">
-        <v>38</v>
-      </c>
       <c r="G16">
-        <v>100401004</v>
+        <v>100401</v>
       </c>
       <c r="H16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>17</v>
+        <v>100401004</v>
+      </c>
+      <c r="J16" t="s">
+        <v>39</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>8</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
       </c>
       <c r="C17">
-        <v>2019</v>
-      </c>
-      <c r="D17">
+        <v>83</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17">
+        <v>2019</v>
+      </c>
+      <c r="F17">
         <v>216</v>
       </c>
-      <c r="E17">
-        <v>100401</v>
-      </c>
-      <c r="F17" t="s">
-        <v>38</v>
-      </c>
       <c r="G17">
-        <v>100401004</v>
+        <v>100401</v>
       </c>
       <c r="H17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+        <v>100401004</v>
+      </c>
+      <c r="J17" t="s">
+        <v>39</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
         <v>20</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18">
+        <v>91</v>
+      </c>
+      <c r="D18" t="s">
         <v>21</v>
       </c>
-      <c r="C18">
-        <v>2019</v>
-      </c>
-      <c r="D18">
+      <c r="E18">
+        <v>2019</v>
+      </c>
+      <c r="F18">
         <v>215.6</v>
       </c>
-      <c r="E18">
-        <v>100401</v>
-      </c>
-      <c r="F18" t="s">
-        <v>38</v>
-      </c>
       <c r="G18">
-        <v>100401004</v>
+        <v>100401</v>
       </c>
       <c r="H18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+        <v>100401004</v>
+      </c>
+      <c r="J18" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
         <v>20</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19">
+        <v>92</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="C19">
-        <v>2019</v>
-      </c>
-      <c r="D19">
+      <c r="E19">
+        <v>2019</v>
+      </c>
+      <c r="F19">
         <v>200</v>
       </c>
-      <c r="E19">
-        <v>100401</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
-      </c>
       <c r="G19">
-        <v>100401004</v>
+        <v>100401</v>
       </c>
       <c r="H19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+        <v>100401004</v>
+      </c>
+      <c r="J19" t="s">
+        <v>39</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
         <v>23</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20">
+        <v>141</v>
+      </c>
+      <c r="D20" t="s">
         <v>24</v>
       </c>
-      <c r="C20">
-        <v>2019</v>
-      </c>
-      <c r="D20">
+      <c r="E20">
+        <v>2019</v>
+      </c>
+      <c r="F20">
         <v>197.93333333333334</v>
       </c>
-      <c r="E20">
-        <v>100401</v>
-      </c>
-      <c r="F20" t="s">
-        <v>38</v>
-      </c>
       <c r="G20">
-        <v>100401004</v>
+        <v>100401</v>
       </c>
       <c r="H20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+        <v>100401004</v>
+      </c>
+      <c r="J20" t="s">
+        <v>39</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>14</v>
+      </c>
+      <c r="B21" t="s">
         <v>23</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21">
+        <v>141</v>
+      </c>
+      <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="C21">
-        <v>2019</v>
-      </c>
-      <c r="D21">
+      <c r="E21">
+        <v>2019</v>
+      </c>
+      <c r="F21">
         <v>197.03125</v>
       </c>
-      <c r="E21">
-        <v>100401</v>
-      </c>
-      <c r="F21" t="s">
-        <v>38</v>
-      </c>
       <c r="G21">
-        <v>100401004</v>
+        <v>100401</v>
       </c>
       <c r="H21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+        <v>100401004</v>
+      </c>
+      <c r="J21" t="s">
+        <v>39</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
         <v>26</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22">
+        <v>101</v>
+      </c>
+      <c r="D22" t="s">
         <v>27</v>
       </c>
-      <c r="C22">
-        <v>2019</v>
-      </c>
-      <c r="D22">
+      <c r="E22">
+        <v>2019</v>
+      </c>
+      <c r="F22">
         <v>198.75</v>
       </c>
-      <c r="E22">
-        <v>100401</v>
-      </c>
-      <c r="F22" t="s">
-        <v>38</v>
-      </c>
       <c r="G22">
-        <v>100401004</v>
+        <v>100401</v>
       </c>
       <c r="H22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+        <v>100401004</v>
+      </c>
+      <c r="J22" t="s">
+        <v>39</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s">
         <v>26</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23">
+        <v>102</v>
+      </c>
+      <c r="D23" t="s">
         <v>28</v>
       </c>
-      <c r="C23">
-        <v>2019</v>
-      </c>
-      <c r="D23">
+      <c r="E23">
+        <v>2019</v>
+      </c>
+      <c r="F23">
         <v>190.66666666666666</v>
       </c>
-      <c r="E23">
-        <v>100401</v>
-      </c>
-      <c r="F23" t="s">
-        <v>38</v>
-      </c>
       <c r="G23">
-        <v>100401004</v>
+        <v>100401</v>
       </c>
       <c r="H23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+        <v>100401004</v>
+      </c>
+      <c r="J23" t="s">
+        <v>39</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
         <v>26</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24">
+        <v>103</v>
+      </c>
+      <c r="D24" t="s">
         <v>29</v>
       </c>
-      <c r="C24">
-        <v>2019</v>
-      </c>
-      <c r="D24">
+      <c r="E24">
+        <v>2019</v>
+      </c>
+      <c r="F24">
         <v>193.32142857142858</v>
       </c>
-      <c r="E24">
-        <v>100401</v>
-      </c>
-      <c r="F24" t="s">
-        <v>38</v>
-      </c>
       <c r="G24">
-        <v>100401004</v>
+        <v>100401</v>
       </c>
       <c r="H24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>30</v>
+        <v>100401004</v>
+      </c>
+      <c r="J24" t="s">
+        <v>39</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>12</v>
       </c>
       <c r="B25" t="s">
         <v>30</v>
       </c>
       <c r="C25">
-        <v>2019</v>
-      </c>
-      <c r="D25">
+        <v>121</v>
+      </c>
+      <c r="D25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25">
+        <v>2019</v>
+      </c>
+      <c r="F25">
         <v>300</v>
       </c>
-      <c r="E25">
-        <v>100401</v>
-      </c>
-      <c r="F25" t="s">
-        <v>38</v>
-      </c>
       <c r="G25">
-        <v>100401004</v>
+        <v>100401</v>
       </c>
       <c r="H25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I25">
+        <v>100401004</v>
+      </c>
+      <c r="J25" t="s">
+        <v>39</v>
+      </c>
+      <c r="K25">
         <v>1</v>
       </c>
     </row>
